--- a/Monthly/Forecast/Stationaritiy/Percentage Return/Nippon_tel.xlsx
+++ b/Monthly/Forecast/Stationaritiy/Percentage Return/Nippon_tel.xlsx
@@ -417,13 +417,13 @@
         <v>106</v>
       </c>
       <c r="C2">
-        <v>-0.1187599391669843</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>-37.11261048276916</v>
+        <v>-37.07500347434407</v>
       </c>
       <c r="E2">
-        <v>36.87509060443519</v>
+        <v>37.07500347434407</v>
       </c>
       <c r="F2">
         <v>-3.960913809504607</v>
@@ -437,13 +437,13 @@
         <v>107</v>
       </c>
       <c r="C3">
-        <v>0.2700021862406048</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>-36.55775592172057</v>
+        <v>-36.90898046873694</v>
       </c>
       <c r="E3">
-        <v>37.09776029420178</v>
+        <v>36.90898046873694</v>
       </c>
       <c r="F3">
         <v>0.7547205635383136</v>
@@ -457,13 +457,13 @@
         <v>108</v>
       </c>
       <c r="C4">
-        <v>-0.07664472549615307</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>-36.73362014709604</v>
+        <v>-36.7379839244818</v>
       </c>
       <c r="E4">
-        <v>36.58033069610374</v>
+        <v>36.7379839244818</v>
       </c>
       <c r="F4">
         <v>-15.41506798272589</v>
@@ -477,13 +477,13 @@
         <v>109</v>
       </c>
       <c r="C5">
-        <v>1.016587458866743</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>-35.58525988485841</v>
+        <v>-36.68340118812431</v>
       </c>
       <c r="E5">
-        <v>37.6184348025919</v>
+        <v>36.68340118812431</v>
       </c>
       <c r="F5">
         <v>-6.3369613932589</v>
@@ -497,13 +497,13 @@
         <v>110</v>
       </c>
       <c r="C6">
-        <v>0.2872296303009739</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>-36.17367416700151</v>
+        <v>-36.53547553901576</v>
       </c>
       <c r="E6">
-        <v>36.74813342760345</v>
+        <v>36.53547553901576</v>
       </c>
       <c r="F6">
         <v>-2.523793258986284</v>
@@ -517,13 +517,13 @@
         <v>111</v>
       </c>
       <c r="C7">
-        <v>0.1247201404234932</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>-36.17534030641719</v>
+        <v>-36.37355937651159</v>
       </c>
       <c r="E7">
-        <v>36.42478058726417</v>
+        <v>36.37355937651159</v>
       </c>
       <c r="F7">
         <v>-6.603058152308527</v>
@@ -537,13 +537,13 @@
         <v>112</v>
       </c>
       <c r="C8">
-        <v>0.3933869674629292</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>-35.76571831237791</v>
+        <v>-36.23145725484529</v>
       </c>
       <c r="E8">
-        <v>36.55249224730377</v>
+        <v>36.23145725484529</v>
       </c>
       <c r="F8">
         <v>-0.3418806748785919</v>
@@ -557,13 +557,13 @@
         <v>113</v>
       </c>
       <c r="C9">
-        <v>-0.02605528312674878</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>-36.02506527509324</v>
+        <v>-36.07083989273362</v>
       </c>
       <c r="E9">
-        <v>35.97295470883974</v>
+        <v>36.07083989273362</v>
       </c>
       <c r="F9">
         <v>2.033968423712285</v>
@@ -577,13 +577,13 @@
         <v>114</v>
       </c>
       <c r="C10">
-        <v>-0.1222094403391161</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>-35.96497697368186</v>
+        <v>-35.91422691747746</v>
       </c>
       <c r="E10">
-        <v>35.72055809300362</v>
+        <v>35.91422691747746</v>
       </c>
       <c r="F10">
         <v>1.66393190039642</v>
@@ -597,13 +597,13 @@
         <v>115</v>
       </c>
       <c r="C11">
-        <v>-0.08770603498830457</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>-35.77578923384096</v>
+        <v>-35.75903040210849</v>
       </c>
       <c r="E11">
-        <v>35.60037716386434</v>
+        <v>35.75903040210849</v>
       </c>
       <c r="F11">
         <v>3.247038503078414</v>
@@ -617,13 +617,13 @@
         <v>116</v>
       </c>
       <c r="C12">
-        <v>-0.1887848575864123</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>-35.72789027465878</v>
+        <v>-35.60946604380706</v>
       </c>
       <c r="E12">
-        <v>35.35032055948595</v>
+        <v>35.60946604380706</v>
       </c>
       <c r="F12">
         <v>-13.67313953551932</v>
@@ -637,13 +637,13 @@
         <v>117</v>
       </c>
       <c r="C13">
-        <v>0.8770964541571087</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>-34.59402226073102</v>
+        <v>-35.54341965987048</v>
       </c>
       <c r="E13">
-        <v>36.34821516904524</v>
+        <v>35.54341965987048</v>
       </c>
       <c r="F13">
         <v>3.597510245827795</v>
@@ -657,13 +657,13 @@
         <v>118</v>
       </c>
       <c r="C14">
-        <v>-0.3336564692073971</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>-35.65752956313756</v>
+        <v>-35.39844341894904</v>
       </c>
       <c r="E14">
-        <v>34.99021662472276</v>
+        <v>35.39844341894904</v>
       </c>
       <c r="F14">
         <v>-1.065729447398844</v>
@@ -677,13 +677,13 @@
         <v>119</v>
       </c>
       <c r="C15">
-        <v>0.1077900456897874</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>-35.06759362533078</v>
+        <v>-35.2499167642812</v>
       </c>
       <c r="E15">
-        <v>35.28317371671036</v>
+        <v>35.2499167642812</v>
       </c>
       <c r="F15">
         <v>-10.93366640374658</v>
@@ -697,13 +697,13 @@
         <v>120</v>
       </c>
       <c r="C16">
-        <v>0.6798063275075017</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>-34.404361002635</v>
+        <v>-35.15720451311133</v>
       </c>
       <c r="E16">
-        <v>35.76397365765</v>
+        <v>35.15720451311133</v>
       </c>
       <c r="F16">
         <v>1.188132788675311</v>
@@ -717,13 +717,13 @@
         <v>121</v>
       </c>
       <c r="C17">
-        <v>-0.1493028962754099</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>-35.08830792056212</v>
+        <v>-35.01226544616912</v>
       </c>
       <c r="E17">
-        <v>34.7897021280113</v>
+        <v>35.01226544616912</v>
       </c>
       <c r="F17">
         <v>6.846779927746116</v>
@@ -737,13 +737,13 @@
         <v>122</v>
       </c>
       <c r="C18">
-        <v>-0.4174977078774816</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>-35.23514689233155</v>
+        <v>-34.88963801457223</v>
       </c>
       <c r="E18">
-        <v>34.40015147657659</v>
+        <v>34.88963801457223</v>
       </c>
       <c r="F18">
         <v>-3.745756253490118</v>
@@ -757,13 +757,13 @@
         <v>123</v>
       </c>
       <c r="C19">
-        <v>0.2791418670338223</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>-34.40165714211427</v>
+        <v>-34.75382588455085</v>
       </c>
       <c r="E19">
-        <v>34.95994087618191</v>
+        <v>34.75382588455085</v>
       </c>
       <c r="F19">
         <v>0.7604599385219402</v>
@@ -777,13 +777,13 @@
         <v>124</v>
       </c>
       <c r="C20">
-        <v>-0.07562157293199129</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>-34.6163980456834</v>
+        <v>-34.61366461351582</v>
       </c>
       <c r="E20">
-        <v>34.46515489981941</v>
+        <v>34.61366461351582</v>
       </c>
       <c r="F20">
         <v>0.3780722839906048</v>
@@ -797,13 +797,13 @@
         <v>125</v>
       </c>
       <c r="C21">
-        <v>-0.01675907088721287</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>-34.41918745211014</v>
+        <v>-34.47499564406271</v>
       </c>
       <c r="E21">
-        <v>34.38566931033571</v>
+        <v>34.47499564406271</v>
       </c>
       <c r="F21">
         <v>-0.7575793808457298</v>
@@ -817,13 +817,13 @@
         <v>126</v>
       </c>
       <c r="C22">
-        <v>0.04985732135583554</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>-34.21602585502297</v>
+        <v>-34.33817237955596</v>
       </c>
       <c r="E22">
-        <v>34.31574049773464</v>
+        <v>34.33817237955596</v>
       </c>
       <c r="F22">
         <v>51.68908432690813</v>
@@ -837,13 +837,13 @@
         <v>127</v>
       </c>
       <c r="C23">
-        <v>-3.347331219805554</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>-38.63989204477392</v>
+        <v>-35.36443664054878</v>
       </c>
       <c r="E23">
-        <v>31.94522960516282</v>
+        <v>35.36443664054878</v>
       </c>
       <c r="F23">
         <v>-8.269171584511348</v>
@@ -857,13 +857,13 @@
         <v>128</v>
       </c>
       <c r="C24">
-        <v>0.9323003288829644</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>-34.2317074441115</v>
+        <v>-35.25514087628232</v>
       </c>
       <c r="E24">
-        <v>36.09630810187743</v>
+        <v>35.25514087628232</v>
       </c>
       <c r="F24">
         <v>12.7044883394916</v>
@@ -877,13 +877,13 @@
         <v>129</v>
       </c>
       <c r="C25">
-        <v>-1.133950728555961</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>-36.21871924843006</v>
+        <v>-35.18659500180443</v>
       </c>
       <c r="E25">
-        <v>33.95081779131814</v>
+        <v>35.18659500180443</v>
       </c>
       <c r="F25">
         <v>17.83367661562663</v>
@@ -897,13 +897,13 @@
         <v>130</v>
       </c>
       <c r="C26">
-        <v>-1.091564062135725</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>-36.19179246920469</v>
+        <v>-35.18481172499192</v>
       </c>
       <c r="E26">
-        <v>34.00866434493324</v>
+        <v>35.18481172499192</v>
       </c>
       <c r="F26">
         <v>-17.83367661562663</v>
